--- a/upload/abc.xlsx
+++ b/upload/abc.xlsx
@@ -19,13 +19,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -48,8 +51,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,32 +437,32 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>channel</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>directory</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publish_date</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>publish_time</t>
         </is>

--- a/upload/abc.xlsx
+++ b/upload/abc.xlsx
@@ -10,7 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Assignments" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignments'!$A$1:$F$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Assignments'!$A$1:$F$4</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -429,7 +429,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="9" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
@@ -469,8 +469,10 @@
       </c>
     </row>
     <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
   </sheetData>
-  <autoFilter ref="A1:F2"/>
+  <autoFilter ref="A1:F4"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>